--- a/Coding Ninjas Sheet.xlsx
+++ b/Coding Ninjas Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Frontend\codingninjas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6004D830-72D9-45F7-B548-FE15FBCD1036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AB0448-56D6-420C-8736-F0D0E76AA0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3680" yWindow="5670" windowWidth="25800" windowHeight="12920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="3840" windowWidth="23040" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Path Sum</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/path-sum/</t>
+  </si>
+  <si>
+    <t>Path Sum II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/path-sum-ii/submissions/</t>
   </si>
   <si>
     <r>
@@ -39,6 +45,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> sum exists or not in the tree
 </t>
@@ -49,6 +56,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Base Case : node == null return 
 Recurisve case : Recurse Left if not found then Right i.e left </t>
@@ -60,6 +68,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">OR </t>
     </r>
@@ -69,34 +78,40 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Right </t>
     </r>
+  </si>
+  <si>
+    <t>Maintain current path in a stack during the traversal</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/subarray-sum-equals-k/</t>
+  </si>
+  <si>
+    <t>Sub array sum == k</t>
+  </si>
+  <si>
+    <t>whenever sums has increased by a value of k, we've found a subarray of sums=k.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/path-sum-iii/description/</t>
+  </si>
+  <si>
+    <t>Path Sum 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -106,16 +121,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -123,21 +173,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -358,39 +441,110 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32.81640625" defaultRowHeight="30.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="32.77734375" defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="40.08984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="60.1796875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="32.81640625" style="2"/>
+    <col min="1" max="1" width="19.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="49.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="67.21875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="32.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:30" s="4" customFormat="1" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" s="4" customFormat="1" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2">
+      <c r="B2" s="8" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+    </row>
+    <row r="3" spans="1:30" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{7B616BEF-469C-464C-B0A9-CF2261712E62}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{5A3FA90E-9E98-4974-8225-92332095C7C8}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{8F645D6B-5B31-462A-82FA-6BF6DEABE21C}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{54D9C634-964F-4825-8B69-559203FC3F20}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Coding Ninjas Sheet.xlsx
+++ b/Coding Ninjas Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Frontend\codingninjas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AB0448-56D6-420C-8736-F0D0E76AA0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAF303E-AE7C-4B4D-86D7-2B348332CB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="3840" windowWidth="23040" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Path Sum</t>
   </si>
@@ -32,6 +32,24 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/path-sum-ii/submissions/</t>
+  </si>
+  <si>
+    <t>Maintain current path in a stack during the traversal</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/subarray-sum-equals-k/</t>
+  </si>
+  <si>
+    <t>Sub array sum == k</t>
+  </si>
+  <si>
+    <t>whenever sums has increased by a value of k, we've found a subarray of sums=k.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/path-sum-iii/description/</t>
+  </si>
+  <si>
+    <t>Path Sum 3</t>
   </si>
   <si>
     <r>
@@ -41,7 +59,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -52,7 +70,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -64,7 +82,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -74,7 +92,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -84,29 +102,226 @@
     </r>
   </si>
   <si>
-    <t>Maintain current path in a stack during the traversal</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/subarray-sum-equals-k/</t>
-  </si>
-  <si>
-    <t>Sub array sum == k</t>
-  </si>
-  <si>
-    <t>whenever sums has increased by a value of k, we've found a subarray of sums=k.</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/path-sum-iii/description/</t>
-  </si>
-  <si>
-    <t>Path Sum 3</t>
+    <t>https://leetcode.com/problems/valid-anagram/</t>
+  </si>
+  <si>
+    <t>1. Sort and Compare; 2. Frequency Compare</t>
+  </si>
+  <si>
+    <t>is Anagram</t>
+  </si>
+  <si>
+    <t>Lowest Common Ancestor of a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>BST, LCA</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The lowest common ancestor is defined between two nodes p and q as the lowest node in T that has both p and q as descendants 
+Case - 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">When P and Q lie on different sides of current root. return root
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Case - 2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">When P and Q lie on Left Side only. return root even if it matches with any element P and Q 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Case - 3 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">When P and Q lie on Right Side only. return root even if it matches with any element P and Q </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Time - O(H) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">H - height of BST 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Space - O(1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - without considering stack space for recursion </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"># Case 1: if any one of the child matches - return that matched child up the hierarchy 
+# case 2: if root matches - return the matched root up the hierarchy 
+# case 3: if we get a match from both left and right sub trees then return the current node up the hierarchy </t>
+  </si>
+  <si>
+    <t>lowest node T that has both p and q as children</t>
+  </si>
+  <si>
+    <t>Validate Binary Search Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/validate-binary-search-tree/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Maintain Range where each node should lie. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>initial Range</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - [-INF +INF]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">for Left </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- [ -INF , node.val - 1 ] 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for Right</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - [ node.val  + 1, +INF ]
+</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -122,15 +337,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -138,14 +352,51 @@
     </font>
     <font>
       <u/>
-      <sz val="10"/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,6 +412,29 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2BDB9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -189,42 +463,83 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -441,110 +756,255 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD4"/>
+  <dimension ref="A1:AI16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32.77734375" defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="33.21875" defaultRowHeight="51" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="49.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="67.21875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="32.77734375" style="1"/>
+    <col min="1" max="1" width="33.21875" style="8"/>
+    <col min="2" max="2" width="74.109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="88" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="33.21875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:35" s="1" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" s="1" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D2" s="3">
         <v>3</v>
       </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
     </row>
-    <row r="2" spans="1:30" s="4" customFormat="1" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="3" spans="1:35" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" s="6" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+    </row>
+    <row r="5" spans="1:35" s="6" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" s="17" customFormat="1" ht="100.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="15">
+        <v>2</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+    </row>
+    <row r="7" spans="1:35" s="1" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="22">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="7">
-        <v>3</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="22"/>
     </row>
-    <row r="3" spans="1:30" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2">
+    <row r="15" spans="1:35" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:35" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="18">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:30" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2</v>
-      </c>
+      <c r="I16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{7B616BEF-469C-464C-B0A9-CF2261712E62}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{5A3FA90E-9E98-4974-8225-92332095C7C8}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{8F645D6B-5B31-462A-82FA-6BF6DEABE21C}"/>
-    <hyperlink ref="B4" r:id="rId4" xr:uid="{54D9C634-964F-4825-8B69-559203FC3F20}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{8F645D6B-5B31-462A-82FA-6BF6DEABE21C}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{54D9C634-964F-4825-8B69-559203FC3F20}"/>
+    <hyperlink ref="B3" r:id="rId5" xr:uid="{773EA8DE-25C3-4DB6-8372-8572D5C56C98}"/>
+    <hyperlink ref="G16" r:id="rId6" xr:uid="{8768F58B-6066-467A-AC3E-FAA79E1DF3B4}"/>
+    <hyperlink ref="B6" r:id="rId7" xr:uid="{89A1C189-CC19-4415-85E2-A96D5B7E1030}"/>
+    <hyperlink ref="B7" r:id="rId8" xr:uid="{C70C0E10-C118-457D-AFE3-340B9F5C2D24}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/Coding Ninjas Sheet.xlsx
+++ b/Coding Ninjas Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Frontend\codingninjas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAF303E-AE7C-4B4D-86D7-2B348332CB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8DB219-295F-4650-8840-109E4EB018DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>Path Sum</t>
   </si>
@@ -315,13 +315,46 @@
       <t xml:space="preserve"> - [ node.val  + 1, +INF ]
 </t>
     </r>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-level-order-traversal/</t>
+  </si>
+  <si>
+    <t>Normal traversal with level as param</t>
+  </si>
+  <si>
+    <t>Longest Palindrome</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-palindrome/</t>
+  </si>
+  <si>
+    <t>Longest Palindrome that can be built by shifting the chars is -
+calculate the frequency 
+addition of even frequency elements to a palindrome will always be a palindrome. 
+if there is any odd freq elemnt return maxResult + 1 or else maxResult.</t>
+  </si>
+  <si>
+    <t>Linked List Cycle II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/linked-list-cycle-ii/</t>
+  </si>
+  <si>
+    <t>when Slow and Fast pointers meet. the Distance from Slow Pointer -&gt; Cycle Start Node == Distance from Start Node to Cycle Start Node</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1nw8GV8dOgiMQIy_v4-28SLCdvauwYhQa/view?usp=sharing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -395,8 +428,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -438,6 +478,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -463,81 +508,83 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -759,16 +806,16 @@
   <dimension ref="A1:AI16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.21875" defaultRowHeight="51" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.21875" style="8"/>
-    <col min="2" max="2" width="74.109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="88" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="33.21875" style="8"/>
+    <col min="1" max="1" width="33.21875" style="13"/>
+    <col min="2" max="2" width="74.109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="88" style="13" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" style="13" customWidth="1"/>
+    <col min="5" max="16384" width="33.21875" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="1" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -867,131 +914,250 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:35" s="17" customFormat="1" ht="100.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:35" s="9" customFormat="1" ht="100.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="8">
         <v>2</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="15"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
     </row>
     <row r="7" spans="1:35" s="1" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="3">
         <v>3</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="22"/>
-      <c r="AC7" s="22"/>
-      <c r="AD7" s="22"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+    </row>
+    <row r="8" spans="1:35" s="12" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="11">
+        <v>3</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+    </row>
+    <row r="9" spans="1:35" s="1" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+    </row>
+    <row r="10" spans="1:35" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="21"/>
     </row>
     <row r="15" spans="1:35" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:35" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="20">
         <v>2</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="K16" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="11"/>
-      <c r="AD16" s="11"/>
-      <c r="AE16" s="11"/>
-      <c r="AF16" s="11"/>
-      <c r="AG16" s="11"/>
-      <c r="AH16" s="11"/>
-      <c r="AI16" s="11"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="21"/>
+      <c r="AE16" s="21"/>
+      <c r="AF16" s="21"/>
+      <c r="AG16" s="21"/>
+      <c r="AH16" s="21"/>
+      <c r="AI16" s="21"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1003,8 +1169,9 @@
     <hyperlink ref="G16" r:id="rId6" xr:uid="{8768F58B-6066-467A-AC3E-FAA79E1DF3B4}"/>
     <hyperlink ref="B6" r:id="rId7" xr:uid="{89A1C189-CC19-4415-85E2-A96D5B7E1030}"/>
     <hyperlink ref="B7" r:id="rId8" xr:uid="{C70C0E10-C118-457D-AFE3-340B9F5C2D24}"/>
+    <hyperlink ref="B8" r:id="rId9" xr:uid="{605A7685-5234-4CA5-971D-DDB165CC132C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/Coding Ninjas Sheet.xlsx
+++ b/Coding Ninjas Sheet.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Frontend\codingninjas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8DB219-295F-4650-8840-109E4EB018DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE90568-ABF1-49C2-B0B2-A73C5E5494F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Easy one Shot" sheetId="1" r:id="rId1"/>
+    <sheet name="Time Taken" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>Path Sum</t>
   </si>
@@ -348,13 +349,32 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1nw8GV8dOgiMQIy_v4-28SLCdvauwYhQa/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Minimum Depth of a Binary Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-depth-of-binary-tree/description/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+maintain left and right sub tree values at every step if absent return inf, take min of them</t>
+  </si>
+  <si>
+    <t>2390. Removing Stars From a String</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/removing-stars-from-a-string/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use Stack </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -430,6 +450,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF006100"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -514,7 +556,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -582,6 +624,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="3" builtinId="26"/>
@@ -806,12 +856,12 @@
   <dimension ref="A1:AI16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.21875" defaultRowHeight="51" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.21875" style="13"/>
+    <col min="1" max="1" width="39.88671875" style="13" customWidth="1"/>
     <col min="2" max="2" width="74.109375" style="13" customWidth="1"/>
     <col min="3" max="3" width="88" style="13" customWidth="1"/>
     <col min="4" max="4" width="9.88671875" style="13" customWidth="1"/>
@@ -1113,6 +1163,17 @@
       <c r="AB10" s="21"/>
       <c r="AC10" s="21"/>
       <c r="AD10" s="21"/>
+    </row>
+    <row r="11" spans="1:35" s="25" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="15" spans="1:35" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:35" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1170,8 +1231,45 @@
     <hyperlink ref="B6" r:id="rId7" xr:uid="{89A1C189-CC19-4415-85E2-A96D5B7E1030}"/>
     <hyperlink ref="B7" r:id="rId8" xr:uid="{C70C0E10-C118-457D-AFE3-340B9F5C2D24}"/>
     <hyperlink ref="B8" r:id="rId9" xr:uid="{605A7685-5234-4CA5-971D-DDB165CC132C}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{6BF29EE3-52DD-4A94-8604-9A3C11EC702F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2519D6AA-A3F0-46AD-A3F5-20A41B0B950B}">
+  <dimension ref="A2:C2"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.109375" style="23" customWidth="1"/>
+    <col min="2" max="2" width="65.77734375" style="23" customWidth="1"/>
+    <col min="3" max="3" width="84.33203125" style="23" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{A9971EF7-3693-45CD-B642-3F8B9110E54D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Coding Ninjas Sheet.xlsx
+++ b/Coding Ninjas Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Frontend\codingninjas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE90568-ABF1-49C2-B0B2-A73C5E5494F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68440BD-1EEF-4DFD-B31A-1A3668FAC7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Easy one Shot" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>Path Sum</t>
   </si>
@@ -368,13 +368,58 @@
   </si>
   <si>
     <t xml:space="preserve">Use Stack </t>
+  </si>
+  <si>
+    <t>Non-overlapping Intervals</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/non-overlapping-intervals/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sort the Array
+check for overlap 
+if overlap occurs then update </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>end to min End</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> else with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>current end</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -476,6 +521,14 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="9">
@@ -556,7 +609,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -632,6 +685,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="3" builtinId="26"/>
@@ -855,7 +911,7 @@
   </sheetPr>
   <dimension ref="A1:AI16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1240,10 +1296,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2519D6AA-A3F0-46AD-A3F5-20A41B0B950B}">
-  <dimension ref="A2:C2"/>
+  <dimension ref="A2:C3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1265,11 +1321,23 @@
         <v>36</v>
       </c>
     </row>
+    <row r="3" spans="1:3" ht="45.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{A9971EF7-3693-45CD-B642-3F8B9110E54D}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{5BCE3030-B6A0-468E-9CA8-90493BCB5174}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Coding Ninjas Sheet.xlsx
+++ b/Coding Ninjas Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Frontend\codingninjas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68440BD-1EEF-4DFD-B31A-1A3668FAC7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEBDC8E-F60D-415B-B614-D1DB0D57FC81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Easy one Shot" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>Path Sum</t>
   </si>
@@ -376,6 +376,260 @@
     <t>https://leetcode.com/problems/non-overlapping-intervals/</t>
   </si>
   <si>
+    <t>Best Time to Buy and Sell Stock</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Buy a Stock at index - low </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>( use 2 pointers )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> low = 0 , high = low + 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Sell a Stock in next index 
+2.1 if profit is -ve - (Discard buying at index low &amp;)Buy the stock from that index
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.1.1 i.e low = high, high = high + 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2.2 if profit is +ve - Track max_so_found until profit goes -ve. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.2.1 max_so_far = max(max_so_far, profit)</t>
+    </r>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock/</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock 2</t>
+  </si>
+  <si>
+    <t>Arrays</t>
+  </si>
+  <si>
+    <t>O(n)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Similar to the above problem. Here there can be &gt; 1 transaction. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>So keep adding up the local profits</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instead of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>taking max from local profits</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class Solution:
+def maxProfit(self, prices: List[int]) -&gt; int:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cumm_profit = 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+low = 0
+high = low + 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>curr_profit = 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+while high &lt; len(prices):
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF38761D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>profit = prices[high] - prices[low]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFE69138"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>// if profit less that previous - sell and rebuy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+if profit &lt;= curr_profit:
+cumm_profit += curr_profit
+curr_profit = 0
+low = high
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFE69138"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>// if profit more that previous - update it</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+elif profit &gt; curr_profit:
+curr_profit = profit
+high = high + 1
+return cumm_profit + curr_profit</t>
+    </r>
+  </si>
+  <si>
+    <t>Longest Palindromic Substring</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-palindromic-substring/</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Sort the Array
 check for overlap 
@@ -388,7 +642,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="major"/>
+        <scheme val="minor"/>
       </rPr>
       <t>end to min End</t>
     </r>
@@ -398,7 +652,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="major"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> else with </t>
     </r>
@@ -409,9 +663,29 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="major"/>
+        <scheme val="minor"/>
       </rPr>
       <t>current end</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use DP
+Create an Array of Size MxM
+Populate Diagonals with 1 as they are palindormes 
+Populate Rest of the Rows and Columns above Diagonal 
+an interval [a,b] is said to be palindrome 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if s[a] == s[b] and s[a+1][b-1] is also a palindrome</t>
     </r>
   </si>
 </sst>
@@ -419,7 +693,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -502,21 +776,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF006100"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -525,13 +784,42 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFCC0000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <scheme val="major"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF38761D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FFE69138"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFE69138"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -578,6 +866,18 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -609,85 +909,100 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="3" builtinId="26"/>
@@ -911,370 +1226,450 @@
   </sheetPr>
   <dimension ref="A1:AI16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.21875" defaultRowHeight="51" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.88671875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="74.109375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="88" style="13" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" style="13" customWidth="1"/>
-    <col min="5" max="16384" width="33.21875" style="13"/>
+    <col min="1" max="1" width="39.88671875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="74.109375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="88" style="20" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" style="20" customWidth="1"/>
+    <col min="5" max="16384" width="33.21875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="1" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:35" s="3" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:35" s="1" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:35" s="3" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <v>3</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
     </row>
-    <row r="3" spans="1:35" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:35" s="3" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:35" s="6" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:35" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:35" s="6" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:35" s="8" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:35" s="9" customFormat="1" ht="100.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:35" s="12" customFormat="1" ht="100.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="10">
         <v>2</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
     </row>
-    <row r="7" spans="1:35" s="1" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:35" s="3" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="5">
         <v>3</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
     </row>
-    <row r="8" spans="1:35" s="12" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:35" s="16" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="15">
         <v>3</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15"/>
     </row>
-    <row r="9" spans="1:35" s="1" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:35" s="3" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="5">
         <v>3</v>
       </c>
       <c r="E9" s="17"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
     </row>
     <row r="10" spans="1:35" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22" t="s">
+      <c r="D10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21"/>
-      <c r="AA10" s="21"/>
-      <c r="AB10" s="21"/>
-      <c r="AC10" s="21"/>
-      <c r="AD10" s="21"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
     </row>
-    <row r="11" spans="1:35" s="25" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+    <row r="11" spans="1:35" s="21" customFormat="1" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="21" t="s">
         <v>39</v>
       </c>
+    </row>
+    <row r="12" spans="1:35" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="24"/>
+      <c r="AA12" s="24"/>
+      <c r="AB12" s="24"/>
+      <c r="AC12" s="24"/>
+      <c r="AD12" s="24"/>
+    </row>
+    <row r="13" spans="1:35" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
     </row>
     <row r="15" spans="1:35" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:35" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="27">
         <v>2</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I16" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="14" t="s">
+      <c r="J16" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="21"/>
-      <c r="AA16" s="21"/>
-      <c r="AB16" s="21"/>
-      <c r="AC16" s="21"/>
-      <c r="AD16" s="21"/>
-      <c r="AE16" s="21"/>
-      <c r="AF16" s="21"/>
-      <c r="AG16" s="21"/>
-      <c r="AH16" s="21"/>
-      <c r="AI16" s="21"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="18"/>
+      <c r="AD16" s="18"/>
+      <c r="AE16" s="18"/>
+      <c r="AF16" s="18"/>
+      <c r="AG16" s="18"/>
+      <c r="AH16" s="18"/>
+      <c r="AI16" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1288,56 +1683,72 @@
     <hyperlink ref="B7" r:id="rId8" xr:uid="{C70C0E10-C118-457D-AFE3-340B9F5C2D24}"/>
     <hyperlink ref="B8" r:id="rId9" xr:uid="{605A7685-5234-4CA5-971D-DDB165CC132C}"/>
     <hyperlink ref="B11" r:id="rId10" xr:uid="{6BF29EE3-52DD-4A94-8604-9A3C11EC702F}"/>
+    <hyperlink ref="A12" r:id="rId11" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock/" xr:uid="{AE956B92-B9A7-4432-8963-346A2009522A}"/>
+    <hyperlink ref="B12" r:id="rId12" xr:uid="{4B559B42-0F26-4666-AEAE-D7508B142BC1}"/>
+    <hyperlink ref="A13" r:id="rId13" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-ii/" xr:uid="{585CCEC3-AF4D-4A71-BEE9-811A46301D9E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2519D6AA-A3F0-46AD-A3F5-20A41B0B950B}">
-  <dimension ref="A2:C3"/>
+  <dimension ref="A2:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.109375" style="23" customWidth="1"/>
-    <col min="2" max="2" width="65.77734375" style="23" customWidth="1"/>
-    <col min="3" max="3" width="84.33203125" style="23" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="23"/>
+    <col min="1" max="1" width="33.109375" style="29" customWidth="1"/>
+    <col min="2" max="2" width="65.77734375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="84.33203125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="29" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="29"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>42</v>
+      <c r="C3" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="31" customFormat="1" ht="88.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{A9971EF7-3693-45CD-B642-3F8B9110E54D}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{5BCE3030-B6A0-468E-9CA8-90493BCB5174}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{7498DFC4-0F7E-42B6-BE62-0626F4253CB8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Coding Ninjas Sheet.xlsx
+++ b/Coding Ninjas Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Frontend\codingninjas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CA481C-CD7C-4342-801A-23F74DB0B906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DBB0D0-53ED-436A-B4F1-7B4FD05D21D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>Path Sum</t>
   </si>
@@ -361,6 +361,12 @@
   </si>
   <si>
     <t>Sort and find the minimum between two adjacent indexed elements.</t>
+  </si>
+  <si>
+    <t>Missing Number</t>
+  </si>
+  <si>
+    <t>Summation, XOR</t>
   </si>
 </sst>
 </file>
@@ -1321,10 +1327,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2519D6AA-A3F0-46AD-A3F5-20A41B0B950B}">
-  <dimension ref="A2:C4"/>
+  <dimension ref="A2:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="98.6640625" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.35"/>
@@ -1332,7 +1338,7 @@
     <col min="1" max="16384" width="98.6640625" style="22"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="22" customFormat="1" ht="64.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="64.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
         <v>31</v>
       </c>
@@ -1343,7 +1349,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="22" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="22" t="s">
         <v>37</v>
       </c>
@@ -1363,6 +1369,14 @@
       </c>
       <c r="C4" s="22" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
